--- a/RelPerCen.csv.xlsx
+++ b/RelPerCen.csv.xlsx
@@ -1,919 +1,947 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="RelPerCen.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="RelPerCen.csv" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="294">
   <si>
-    <t>Empleado/a</t>
-  </si>
-  <si>
-    <t>DNI/Pasaporte</t>
-  </si>
-  <si>
-    <t>Puesto</t>
-  </si>
-  <si>
-    <t>Fecha de toma de posesión</t>
-  </si>
-  <si>
-    <t>Fecha de cese</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>Evaluador</t>
-  </si>
-  <si>
-    <t>Coordinador</t>
-  </si>
-  <si>
-    <t>Alhambra Bullón, Dolores M.</t>
-  </si>
-  <si>
-    <t>24198392T</t>
-  </si>
-  <si>
-    <t>Matemáticas P.E.S.</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Álvarez Bermudo, Mario</t>
-  </si>
-  <si>
-    <t>08921749A</t>
-  </si>
-  <si>
-    <t>Area Científico-Tecnolog. (Apoyo Covid)</t>
-  </si>
-  <si>
-    <t>Álvarez Chamizo, Cristina</t>
-  </si>
-  <si>
-    <t>33353948S</t>
-  </si>
-  <si>
-    <t>Contr. Lab. Religión (Sec-Ere) 05 Horas</t>
-  </si>
-  <si>
-    <t>08914265V</t>
-  </si>
-  <si>
-    <t>Tecnología P.E.S.</t>
-  </si>
-  <si>
-    <t>33347173W</t>
-  </si>
-  <si>
-    <t>Geografía e Historia P.E.S.</t>
-  </si>
-  <si>
-    <t>Arroyo Pretel, Jean Paul</t>
-  </si>
-  <si>
-    <t>25679044G</t>
-  </si>
-  <si>
-    <t>Contr. Lab. Religión (Sec-Ere) 06 Horas</t>
-  </si>
-  <si>
-    <t>75818111Z</t>
-  </si>
-  <si>
-    <t>Lengua Castellana y Literatura P.E.S.</t>
-  </si>
-  <si>
-    <t>Avilés Jiménez, Beatriz</t>
-  </si>
-  <si>
-    <t>28614411L</t>
-  </si>
-  <si>
-    <t>Baena Escaño, Claudia</t>
-  </si>
-  <si>
-    <t>75563185C</t>
-  </si>
-  <si>
-    <t>Administración de Empresas P.E.S.</t>
-  </si>
-  <si>
-    <t>Baena Valero, Juan José</t>
-  </si>
-  <si>
-    <t>27347150N</t>
-  </si>
-  <si>
-    <t>Informática P.E.S.</t>
-  </si>
-  <si>
-    <t>Báez Ruiz, Concepción</t>
-  </si>
-  <si>
-    <t>22723547F</t>
-  </si>
-  <si>
-    <t>Bain Antonyak, Diego</t>
-  </si>
-  <si>
-    <t>45711491A</t>
-  </si>
-  <si>
-    <t>Baraza Zamorano, Laura</t>
-  </si>
-  <si>
-    <t>26966400G</t>
-  </si>
-  <si>
-    <t>Inglés P.E.S.</t>
-  </si>
-  <si>
-    <t>Barroso Jiménez, María Isabel</t>
-  </si>
-  <si>
-    <t>53151310N</t>
-  </si>
-  <si>
-    <t>Sistemas Electrónicos P.E.S.</t>
-  </si>
-  <si>
-    <t>Berenguel Álvarez, Pablo</t>
-  </si>
-  <si>
-    <t>52571560T</t>
-  </si>
-  <si>
-    <t>Biología y Geología P.E.S.</t>
-  </si>
-  <si>
-    <t>Cárdenas Díaz, Laura</t>
-  </si>
-  <si>
-    <t>26800485B</t>
-  </si>
-  <si>
-    <t>Educación Física P.E.S.</t>
-  </si>
-  <si>
-    <t>Carmona Serrano, Laura</t>
-  </si>
-  <si>
-    <t>06572131L</t>
-  </si>
-  <si>
-    <t>Dibujo P.E.S.</t>
-  </si>
-  <si>
-    <t>Carrillo Moreno, Carmen Isabel</t>
-  </si>
-  <si>
-    <t>75006921B</t>
-  </si>
-  <si>
-    <t>52555297K</t>
-  </si>
-  <si>
-    <t>Formación y Orientación Laboral P.E.S.</t>
-  </si>
-  <si>
-    <t>Cocinero Molinero, Melania</t>
-  </si>
-  <si>
-    <t>74906891P</t>
-  </si>
-  <si>
-    <t>De la Fe Fernández, Rosa María</t>
-  </si>
-  <si>
-    <t>31018171A</t>
-  </si>
-  <si>
-    <t>75115004V</t>
-  </si>
-  <si>
-    <t>Díaz Puerto, Francisco Javier</t>
-  </si>
-  <si>
-    <t>50602307F</t>
-  </si>
-  <si>
-    <t>Filosofía P.E.S.</t>
-  </si>
-  <si>
-    <t>24263559P</t>
-  </si>
-  <si>
-    <t>Domínguez Tamayo, Julen</t>
-  </si>
-  <si>
-    <t>03888739Z</t>
-  </si>
-  <si>
-    <t>44756577A</t>
-  </si>
-  <si>
-    <t>Durán Blanco, José Antonio</t>
-  </si>
-  <si>
-    <t>74696158R</t>
-  </si>
-  <si>
-    <t>Escalona González, Rosa</t>
-  </si>
-  <si>
-    <t>27340284T</t>
-  </si>
-  <si>
-    <t>Escobar Márquez, Luís María</t>
-  </si>
-  <si>
-    <t>25661407P</t>
-  </si>
-  <si>
-    <t>Escudero Hernández, Virginia</t>
-  </si>
-  <si>
-    <t>30787489B</t>
-  </si>
-  <si>
-    <t>Física y Química P.E.S.</t>
-  </si>
-  <si>
-    <t>Fagundo García, Emilia</t>
-  </si>
-  <si>
-    <t>12731426Y</t>
-  </si>
-  <si>
-    <t>Fernández López, Pedro José</t>
-  </si>
-  <si>
-    <t>26974925L</t>
-  </si>
-  <si>
-    <t>Fernández Luzón, Rodrigo</t>
-  </si>
-  <si>
-    <t>74663933E</t>
-  </si>
-  <si>
-    <t>Fernández Mangano, Luis Miguel</t>
-  </si>
-  <si>
-    <t>44263282N</t>
-  </si>
-  <si>
-    <t>Fernández Ramírez, Cristina</t>
-  </si>
-  <si>
-    <t>76748408F</t>
-  </si>
-  <si>
-    <t>Fortea Molina, Pastora</t>
-  </si>
-  <si>
-    <t>77455412Z</t>
-  </si>
-  <si>
-    <t>Francés P.E.S.</t>
-  </si>
-  <si>
-    <t>28840307D</t>
-  </si>
-  <si>
-    <t>García Beneite, Cora Ángeles</t>
-  </si>
-  <si>
-    <t>77455262W</t>
-  </si>
-  <si>
-    <t>75158773V</t>
-  </si>
-  <si>
-    <t>García Del Valle, Ana</t>
-  </si>
-  <si>
-    <t>24228342G</t>
-  </si>
-  <si>
-    <t>García Pascual, Almudena</t>
-  </si>
-  <si>
-    <t>25718794X</t>
-  </si>
-  <si>
-    <t>Garrocho González, Cristina</t>
-  </si>
-  <si>
-    <t>33397284L</t>
-  </si>
-  <si>
-    <t>Gijón Mateo, Emilia</t>
-  </si>
-  <si>
-    <t>25931941Q</t>
-  </si>
-  <si>
-    <t>Giráldez Cuevas, María</t>
-  </si>
-  <si>
-    <t>07986998H</t>
-  </si>
-  <si>
-    <t>34843289Z</t>
-  </si>
-  <si>
-    <t>Girón Vega, María Dolores</t>
-  </si>
-  <si>
-    <t>29077348N</t>
-  </si>
-  <si>
-    <t>González Astilleros, Verónica</t>
-  </si>
-  <si>
-    <t>25565241M</t>
-  </si>
-  <si>
-    <t>González Chamizo, María</t>
-  </si>
-  <si>
-    <t>45714123J</t>
-  </si>
-  <si>
-    <t>González Garzón, Álvaro</t>
-  </si>
-  <si>
-    <t>74934666E</t>
-  </si>
-  <si>
-    <t>González Juliá, María del Carmen</t>
-  </si>
-  <si>
-    <t>78988638Z</t>
-  </si>
-  <si>
-    <t>Area de Lengua y CC. Soc. (Apoyo Covid)</t>
-  </si>
-  <si>
-    <t>González Ramírez, Jessica</t>
-  </si>
-  <si>
-    <t>79055309P</t>
-  </si>
-  <si>
-    <t>Orientación Educativa P.E.S.</t>
-  </si>
-  <si>
-    <t>Hernández Lozano, Remedios</t>
-  </si>
-  <si>
-    <t>26485849S</t>
-  </si>
-  <si>
-    <t>Hidalgo Villa, Javier</t>
-  </si>
-  <si>
-    <t>08922573E</t>
-  </si>
-  <si>
-    <t>Contr. Lab.Evangelic. (Sec-Ere) 04 Horas</t>
-  </si>
-  <si>
-    <t>Horno Cabrera, María del Carmen</t>
-  </si>
-  <si>
-    <t>74831388Z</t>
-  </si>
-  <si>
-    <t>Proc. Gestión Administrativa P.T.F.P.</t>
-  </si>
-  <si>
-    <t>Jiménez Jiménez, Amparo</t>
-  </si>
-  <si>
-    <t>77455402G</t>
-  </si>
-  <si>
-    <t>Lara Orive, Rachel</t>
-  </si>
-  <si>
-    <t>78961479H</t>
-  </si>
-  <si>
-    <t>León Sánchez, María Luisa</t>
-  </si>
-  <si>
-    <t>75710637L</t>
-  </si>
-  <si>
-    <t>Lincoln Romero, Guillermo</t>
-  </si>
-  <si>
-    <t>34843485A</t>
-  </si>
-  <si>
-    <t>Lirola Oliva, Ana</t>
-  </si>
-  <si>
-    <t>74868422H</t>
-  </si>
-  <si>
-    <t>López Córdoba, Marta</t>
-  </si>
-  <si>
-    <t>75128842D</t>
-  </si>
-  <si>
-    <t>Macías Laynez, Magdalena</t>
-  </si>
-  <si>
-    <t>25583669X</t>
-  </si>
-  <si>
-    <t>Malmesat Rodríguez, Mercedes</t>
-  </si>
-  <si>
-    <t>25713795W</t>
-  </si>
-  <si>
-    <t>Manuel Coronado, David</t>
-  </si>
-  <si>
-    <t>80133984Y</t>
-  </si>
-  <si>
-    <t>Márquez Pineda, Jacqueline Cristina</t>
-  </si>
-  <si>
-    <t>74867075M</t>
-  </si>
-  <si>
-    <t>Martín Fernández, Inmaculada Concepción</t>
-  </si>
-  <si>
-    <t>70909878G</t>
-  </si>
-  <si>
-    <t>Martínez Arriaza, Humberto</t>
-  </si>
-  <si>
-    <t>80125358M</t>
-  </si>
-  <si>
-    <t>Martínez Fernández, Inés</t>
-  </si>
-  <si>
-    <t>75729511X</t>
-  </si>
-  <si>
-    <t>53682231R</t>
-  </si>
-  <si>
-    <t>Maza Jurado, Elisa María</t>
-  </si>
-  <si>
-    <t>77330277E</t>
-  </si>
-  <si>
-    <t>Economía P.E.S.</t>
-  </si>
-  <si>
-    <t>Mesa Rivera, Inmaculada del Mar</t>
-  </si>
-  <si>
-    <t>23275278Z</t>
-  </si>
-  <si>
-    <t>74885311W</t>
-  </si>
-  <si>
-    <t>27344407Y</t>
-  </si>
-  <si>
-    <t>Cultura Clásica P.E.S.</t>
-  </si>
-  <si>
-    <t>26458859G</t>
-  </si>
-  <si>
-    <t>Mora Luciani, Estefanía</t>
-  </si>
-  <si>
-    <t>77181164H</t>
-  </si>
-  <si>
-    <t>Moral Yesa, Sandra</t>
-  </si>
-  <si>
-    <t>53694108X</t>
-  </si>
-  <si>
-    <t>Moreno Fernández, Eligia Rocío</t>
-  </si>
-  <si>
-    <t>53593134Y</t>
-  </si>
-  <si>
-    <t>Mula GarcÃ­a, Andrés</t>
-  </si>
-  <si>
-    <t>44590674E</t>
-  </si>
-  <si>
-    <t>79044480N</t>
-  </si>
-  <si>
-    <t>Muñoz Gómez, Triana</t>
-  </si>
-  <si>
-    <t>74657046N</t>
-  </si>
-  <si>
-    <t>Murillo García, María Jesús</t>
-  </si>
-  <si>
-    <t>75743031Y</t>
-  </si>
-  <si>
-    <t>Pedagogía Terapeutica Eso</t>
-  </si>
-  <si>
-    <t>Navarrete Fernández, Luis Ramón</t>
-  </si>
-  <si>
-    <t>52294297W</t>
-  </si>
-  <si>
-    <t>78968283Z</t>
-  </si>
-  <si>
-    <t>Navarro Martínez, Ana</t>
-  </si>
-  <si>
-    <t>30234175P</t>
-  </si>
-  <si>
-    <t>78969645L</t>
-  </si>
-  <si>
-    <t>Núñez Murillo, Margarita</t>
-  </si>
-  <si>
-    <t>75111043N</t>
-  </si>
-  <si>
-    <t>Sistemas y Aplic. Informáticos P.T.F.P.</t>
-  </si>
-  <si>
-    <t>Ortiz Álvarez, Raquel</t>
-  </si>
-  <si>
-    <t>27337182A</t>
-  </si>
-  <si>
-    <t>Pabón Alcaide, José Antonio</t>
-  </si>
-  <si>
-    <t>31730572W</t>
-  </si>
-  <si>
-    <t>Pacheco Rodríguez, Isabel María</t>
-  </si>
-  <si>
-    <t>24882305P</t>
-  </si>
-  <si>
-    <t>Palma Ruiz, Dámaris</t>
-  </si>
-  <si>
-    <t>75136159N</t>
-  </si>
-  <si>
-    <t>Pariente Núñez, Rafael</t>
-  </si>
-  <si>
-    <t>76637554J</t>
-  </si>
-  <si>
-    <t>Pastor Martínez, Pedro</t>
-  </si>
-  <si>
-    <t>25075656K</t>
-  </si>
-  <si>
-    <t>Peña Guzmán, Carlos</t>
-  </si>
-  <si>
-    <t>53656255S</t>
-  </si>
-  <si>
-    <t>Pérez Alfaro, Emilia</t>
-  </si>
-  <si>
-    <t>08921790K</t>
-  </si>
-  <si>
-    <t>76433581G</t>
-  </si>
-  <si>
-    <t>Pérez Ruiz, Carlos</t>
-  </si>
-  <si>
-    <t>42848833V</t>
-  </si>
-  <si>
-    <t>Equipos Electrónicos P.T.F.P.</t>
-  </si>
-  <si>
-    <t>Picón Sanz, José Manuel</t>
-  </si>
-  <si>
-    <t>26211671C</t>
-  </si>
-  <si>
-    <t>Portillo Callejón, Noemí</t>
-  </si>
-  <si>
-    <t>30236694C</t>
-  </si>
-  <si>
-    <t>Prat Quiles, Francisco</t>
-  </si>
-  <si>
-    <t>30974640B</t>
-  </si>
-  <si>
-    <t>Quesada Beltrán, Luis</t>
-  </si>
-  <si>
-    <t>75895274N</t>
-  </si>
-  <si>
-    <t>X9430310B</t>
-  </si>
-  <si>
-    <t>Quesada Martín, Teresa</t>
-  </si>
-  <si>
-    <t>53771268M</t>
-  </si>
-  <si>
-    <t>Rabinovich Camacho, Carlos</t>
-  </si>
-  <si>
-    <t>08906635T</t>
-  </si>
-  <si>
-    <t>24279666S</t>
-  </si>
-  <si>
-    <t>26466515R</t>
-  </si>
-  <si>
-    <t>08922687K</t>
-  </si>
-  <si>
-    <t>Música P.E.S.</t>
-  </si>
-  <si>
-    <t>Revelles Rubio, Soraya</t>
-  </si>
-  <si>
-    <t>76997333A</t>
-  </si>
-  <si>
-    <t>Rivas Rivas, José Manuel</t>
-  </si>
-  <si>
-    <t>30458572V</t>
-  </si>
-  <si>
-    <t>Rodilphe Núñez, Sheila</t>
-  </si>
-  <si>
-    <t>25715185N</t>
-  </si>
-  <si>
-    <t>Rodríguez Montero, Rocío</t>
-  </si>
-  <si>
-    <t>74816539T</t>
-  </si>
-  <si>
-    <t>Rodríguez Moreno, María de la Concepciòn</t>
-  </si>
-  <si>
-    <t>26816822H</t>
-  </si>
-  <si>
-    <t>Rodríguez Pérez, Nazareth</t>
-  </si>
-  <si>
-    <t>75251666J</t>
-  </si>
-  <si>
-    <t>Romero Reyes, Marina Concepción</t>
-  </si>
-  <si>
-    <t>74837904K</t>
-  </si>
-  <si>
-    <t>Ruiz Bajo, Rosa María</t>
-  </si>
-  <si>
-    <t>31841670X</t>
-  </si>
-  <si>
-    <t>Saborido Pozo, Carmona</t>
-  </si>
-  <si>
-    <t>14635310L</t>
-  </si>
-  <si>
-    <t>Salcedo Aragón, María del Carmen</t>
-  </si>
-  <si>
-    <t>71891915X</t>
-  </si>
-  <si>
-    <t>Salguero Fernández, Guadalupe</t>
-  </si>
-  <si>
-    <t>15472958F</t>
-  </si>
-  <si>
-    <t>Sánchez González, Maud Brigitte Marie</t>
-  </si>
-  <si>
-    <t>75721574P</t>
-  </si>
-  <si>
-    <t>Sánchez Pérez, Manuel</t>
-  </si>
-  <si>
-    <t>74901717D</t>
-  </si>
-  <si>
-    <t>52296143P</t>
-  </si>
-  <si>
-    <t>Sánchez Romero, Marta</t>
-  </si>
-  <si>
-    <t>77452049D</t>
-  </si>
-  <si>
-    <t>Santana Ortega, Ángela</t>
-  </si>
-  <si>
-    <t>25975666H</t>
-  </si>
-  <si>
-    <t>Sastre GarcÃ­a, David</t>
-  </si>
-  <si>
-    <t>77348976E</t>
-  </si>
-  <si>
-    <t>25333003K</t>
-  </si>
-  <si>
-    <t>Serena León, Ana María</t>
-  </si>
-  <si>
-    <t>26012958G</t>
-  </si>
-  <si>
-    <t>Serrano Maján, Isabel</t>
-  </si>
-  <si>
-    <t>45070008J</t>
-  </si>
-  <si>
-    <t>Silva Macías, Fernando</t>
-  </si>
-  <si>
-    <t>74853120B</t>
-  </si>
-  <si>
-    <t>Audición y Lenguaje Eso. (Signos)</t>
-  </si>
-  <si>
-    <t>Soria De Vila, Antonio Jesús</t>
-  </si>
-  <si>
-    <t>44575768C</t>
-  </si>
-  <si>
-    <t>Tirado Pérez, María Inmaculada</t>
-  </si>
-  <si>
-    <t>44580305A</t>
-  </si>
-  <si>
-    <t>Torres Silva, Antonia</t>
-  </si>
-  <si>
-    <t>08929037T</t>
-  </si>
-  <si>
-    <t>Ucha Montes, María Isabel</t>
-  </si>
-  <si>
-    <t>34029354A</t>
-  </si>
-  <si>
-    <t>Valero Gamarra, María Herminia</t>
-  </si>
-  <si>
-    <t>48956848Z</t>
-  </si>
-  <si>
-    <t>Vallés Martos, Natalia</t>
-  </si>
-  <si>
-    <t>74882954Z</t>
-  </si>
-  <si>
-    <t>09057185S</t>
-  </si>
-  <si>
-    <t>Vargas-Machuca Rincón, Eduardo Jesús</t>
-  </si>
-  <si>
-    <t>26206754W</t>
-  </si>
-  <si>
-    <t>Vega Mancera, Silvia</t>
-  </si>
-  <si>
-    <t>76368363Z</t>
-  </si>
-  <si>
-    <t>Vidal Morillas, María Nieves</t>
-  </si>
-  <si>
-    <t>32028489T</t>
-  </si>
-  <si>
-    <t>27347116R</t>
-  </si>
-  <si>
-    <t>Viedma Canca, Pablo Manuel</t>
-  </si>
-  <si>
-    <t>31831916P</t>
-  </si>
-  <si>
-    <t>Young García, María Lucía</t>
-  </si>
-  <si>
-    <t>24259915K</t>
-  </si>
-  <si>
-    <t>Zapata Moreno, Nerea del Rocío</t>
-  </si>
-  <si>
-    <t>08915544P</t>
-  </si>
-  <si>
-    <t>Laboral Religión (Sec-Ere) Jor.Completa</t>
+    <t xml:space="preserve">Empleado/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNI/Pasaporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de toma de posesión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de cese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teléfono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alhambra Bullón, Dolores M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24198392T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matemáticas P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Álvarez Bermudo, Mario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08921749A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area Científico-Tecnolog. (Apoyo Covid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Álvarez Chamizo, Cristina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33353948S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contr. Lab. Religión (Sec-Ere) 05 Horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08914265V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnología P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33347173W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geografía e Historia P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arroyo Pretel, Jean Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25679044G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contr. Lab. Religión (Sec-Ere) 06 Horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75818111Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua Castellana y Literatura P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avilés Jiménez, Beatriz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28614411L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baena Escaño, Claudia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75563185C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administración de Empresas P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baena Valero, Juan José</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27347150N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informática P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Báez Ruiz, Concepción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22723547F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bain Antonyak, Diego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45711491A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baraza Zamorano, Laura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26966400G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inglés P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barroso Jiménez, María Isabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53151310N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas Electrónicos P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berenguel Álvarez, Pablo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52571560T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biología y Geología P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cárdenas Díaz, Laura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26800485B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educación Física P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carmona Serrano, Laura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06572131L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibujo P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrillo Moreno, Carmen Isabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75006921B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52555297K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formación y Orientación Laboral P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocinero Molinero, Melania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74906891P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De la Fe Fernández, Rosa María</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31018171A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75115004V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Díaz Puerto, Francisco Javier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50602307F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filosofía P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24263559P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domínguez Tamayo, Julen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03888739Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44756577A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durán Blanco, José Antonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74696158R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escalona González, Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27340284T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escobar Márquez, Luís María</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25661407P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escudero Hernández, Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30787489B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Física y Química P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fagundo García, Emilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12731426Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernández López, Pedro José</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26974925L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernández Luzón, Rodrigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74663933E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernández Mangano, Luis Miguel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44263282N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernández Ramírez, Cristina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76748408F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortea Molina, Pastora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77455412Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francés P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28840307D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">García Beneite, Cora Ángeles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77455262W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75158773V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">García Del Valle, Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24228342G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">García Pascual, Almudena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25718794X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garrocho González, Cristina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33397284L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gijón Mateo, Emilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25931941Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giráldez Cuevas, María</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07986998H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34843289Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girón Vega, María Dolores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29077348N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">González Astilleros, Verónica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25565241M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">González Chamizo, María</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45714123J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">González Garzón, Álvaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74934666E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">González Juliá, María del Carmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78988638Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area de Lengua y CC. Soc. (Apoyo Covid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">González Ramírez, Jessica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79055309P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orientación Educativa P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hernández Lozano, Remedios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26485849S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo Villa, Javier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08922573E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contr. Lab.Evangelic. (Sec-Ere) 04 Horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horno Cabrera, María del Carmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74831388Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proc. Gestión Administrativa P.T.F.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiménez Jiménez, Amparo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77455402G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lara Orive, Rachel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78961479H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León Sánchez, María Luisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75710637L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lincoln Romero, Guillermo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34843485A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lirola Oliva, Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74868422H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">López Córdoba, Marta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75128842D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macías Laynez, Magdalena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25583669X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malmesat Rodríguez, Mercedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25713795W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Coronado, David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80133984Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Márquez Pineda, Jacqueline Cristina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74867075M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martín Fernández, Inmaculada Concepción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70909878G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martínez Arriaza, Humberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80125358M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martínez Fernández, Inés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75729511X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53682231R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maza Jurado, Elisa María</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77330277E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economía P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesa Rivera, Inmaculada del Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23275278Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74885311W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27344407Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cultura Clásica P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26458859G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mora Luciani, Estefanía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77181164H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral Yesa, Sandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53694108X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreno Fernández, Eligia Rocío</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53593134Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mula GarcÃ­a, Andrés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44590674E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79044480N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muñoz Gómez, Triana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74657046N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murillo García, María Jesús</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75743031Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedagogía Terapeutica Eso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navarrete Fernández, Luis Ramón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52294297W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78968283Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navarro Martínez, Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30234175P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78969645L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Núñez Murillo, Margarita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75111043N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas y Aplic. Informáticos P.T.F.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortiz Álvarez, Raquel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27337182A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pabón Alcaide, José Antonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31730572W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacheco Rodríguez, Isabel María</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24882305P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palma Ruiz, Dámaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75136159N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pariente Núñez, Rafael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76637554J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastor Martínez, Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25075656K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peña Guzmán, Carlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53656255S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pérez Alfaro, Emilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08921790K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76433581G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pérez Ruiz, Carlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42848833V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipos Electrónicos P.T.F.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picón Sanz, José Manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26211671C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portillo Callejón, Noemí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30236694C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prat Quiles, Francisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30974640B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quesada Beltrán, Luis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75895274N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X9430310B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quesada Martín, Teresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53771268M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabinovich Camacho, Carlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08906635T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24279666S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26466515R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08922687K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Música P.E.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revelles Rubio, Soraya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76997333A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivas Rivas, José Manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30458572V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodilphe Núñez, Sheila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25715185N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodríguez Montero, Rocío</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74816539T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodríguez Moreno, María de la Concepciòn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26816822H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodríguez Pérez, Nazareth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75251666J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romero Reyes, Marina Concepción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74837904K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruiz Bajo, Rosa María</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31841670X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saborido Pozo, Carmona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14635310L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salcedo Aragón, María del Carmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71891915X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salguero Fernández, Guadalupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15472958F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sánchez González, Maud Brigitte Marie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75721574P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sánchez Pérez, Manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74901717D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52296143P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sánchez Romero, Marta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77452049D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santana Ortega, Ángela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25975666H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sastre GarcÃ­a, David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77348976E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25333003K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serena León, Ana María</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26012958G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serrano Maján, Isabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45070008J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silva Macías, Fernando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74853120B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audición y Lenguaje Eso. (Signos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soria De Vila, Antonio Jesús</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44575768C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirado Pérez, María Inmaculada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44580305A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torres Silva, Antonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08929037T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ucha Montes, María Isabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34029354A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valero Gamarra, María Herminia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48956848Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vallés Martos, Natalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74882954Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09057185S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vargas-Machuca Rincón, Eduardo Jesús</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26206754W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vega Mancera, Silvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76368363Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidal Morillas, María Nieves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32028489T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27347116R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viedma Canca, Pablo Manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31831916P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young García, María Lucía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24259915K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zapata Moreno, Nerea del Rocío</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08915544P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboral Religión (Sec-Ere) Jor.Completa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -921,248 +949,94 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.78"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1198,11 +1072,11 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>43709.0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>9.58261885E8</v>
+      <c r="D2" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>958261885</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1211,7 +1085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1221,14 +1095,14 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2">
-        <v>44090.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6.26427174E8</v>
+      <c r="D3" s="2" t="n">
+        <v>44090</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>626427174</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1237,7 +1111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1247,14 +1121,14 @@
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44439.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6.51429273E8</v>
+      <c r="D4" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>651429273</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1263,7 +1137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1273,11 +1147,11 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2">
-        <v>38961.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>9.52896014E8</v>
+      <c r="D5" s="2" t="n">
+        <v>38961</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>952896014</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1286,7 +1160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1296,14 +1170,14 @@
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6.36244624E8</v>
+      <c r="D6" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>636244624</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1312,7 +1186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1322,14 +1196,14 @@
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2">
-        <v>44211.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44241.0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6.7605058E8</v>
+      <c r="D7" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>44241</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>676050580</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1338,7 +1212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,14 +1222,14 @@
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6.58504596E8</v>
+      <c r="D8" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>658504596</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1364,7 +1238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1374,8 +1248,8 @@
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2">
-        <v>42614.0</v>
+      <c r="D9" s="2" t="n">
+        <v>42614</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1384,7 +1258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1394,11 +1268,11 @@
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2">
-        <v>44095.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44377.0</v>
+      <c r="D10" s="2" t="n">
+        <v>44095</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>44377</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1407,7 +1281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1417,11 +1291,11 @@
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2">
-        <v>41518.0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>9.52869739E8</v>
+      <c r="D11" s="2" t="n">
+        <v>41518</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>952869739</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1430,7 +1304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1440,8 +1314,8 @@
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2">
-        <v>33512.0</v>
+      <c r="D12" s="2" t="n">
+        <v>33512</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1450,7 +1324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1460,14 +1334,14 @@
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6.00453894E8</v>
+      <c r="D13" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>600453894</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1476,7 +1350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1486,11 +1360,11 @@
       <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>6.38310087E8</v>
+      <c r="D14" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>638310087</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1499,7 +1373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1509,11 +1383,11 @@
       <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="2">
-        <v>37865.0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>9.52806165E8</v>
+      <c r="D15" s="2" t="n">
+        <v>37865</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>952806165</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1522,7 +1396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1532,11 +1406,11 @@
       <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="2">
-        <v>38596.0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>9.52800769E8</v>
+      <c r="D16" s="2" t="n">
+        <v>38596</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>952800769</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -1545,7 +1419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -1555,11 +1429,11 @@
       <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="2">
-        <v>40422.0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>6.17704193E8</v>
+      <c r="D17" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>617704193</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -1568,7 +1442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -1578,14 +1452,14 @@
       <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>6.16534693E8</v>
+      <c r="D18" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>616534693</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
@@ -1594,7 +1468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1604,11 +1478,11 @@
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="2">
-        <v>33878.0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>6.9217698E8</v>
+      <c r="D19" s="2" t="n">
+        <v>33878</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>692176980</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>11</v>
@@ -1617,7 +1491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -1627,11 +1501,11 @@
       <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="2">
-        <v>43344.0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>6.30753403E8</v>
+      <c r="D20" s="2" t="n">
+        <v>43344</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>630753403</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>11</v>
@@ -1640,7 +1514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -1650,14 +1524,14 @@
       <c r="C21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>6.18640089E8</v>
+      <c r="D21" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>618640089</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>11</v>
@@ -1666,7 +1540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
@@ -1676,14 +1550,14 @@
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="2">
-        <v>44140.0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>44174.0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6.72785425E8</v>
+      <c r="D22" s="2" t="n">
+        <v>44140</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>44174</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>672785425</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>11</v>
@@ -1692,7 +1566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -1702,11 +1576,11 @@
       <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>6.06648952E8</v>
+      <c r="D23" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>606648952</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>11</v>
@@ -1715,7 +1589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -1725,11 +1599,11 @@
       <c r="C24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="2">
-        <v>41153.0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>6.55526696E8</v>
+      <c r="D24" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>655526696</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>11</v>
@@ -1738,7 +1612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -1748,14 +1622,14 @@
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>44439.0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>9.58443348E8</v>
+      <c r="D25" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>958443348</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>11</v>
@@ -1764,7 +1638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -1774,11 +1648,11 @@
       <c r="C26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="2">
-        <v>41153.0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>9.51249955E8</v>
+      <c r="D26" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>951249955</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>11</v>
@@ -1787,7 +1661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -1797,11 +1671,11 @@
       <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="2">
-        <v>42614.0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>6.47582371E8</v>
+      <c r="D27" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>647582371</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>11</v>
@@ -1810,7 +1684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -1820,14 +1694,14 @@
       <c r="C28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>44439.0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>9.58292195E8</v>
+      <c r="D28" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>958292195</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>11</v>
@@ -1836,7 +1710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -1846,14 +1720,14 @@
       <c r="C29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>44439.0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>6.39177088E8</v>
+      <c r="D29" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>639177088</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>11</v>
@@ -1862,7 +1736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
@@ -1872,11 +1746,11 @@
       <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="2">
-        <v>43709.0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>9.52806165E8</v>
+      <c r="D30" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>952806165</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>11</v>
@@ -1885,7 +1759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
@@ -1895,11 +1769,11 @@
       <c r="C31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="2">
-        <v>43709.0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>9.51576056E8</v>
+      <c r="D31" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>951576056</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>11</v>
@@ -1908,7 +1782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -1918,11 +1792,11 @@
       <c r="C32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="2">
-        <v>41153.0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>6.89100483E8</v>
+      <c r="D32" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>689100483</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>11</v>
@@ -1931,7 +1805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
@@ -1941,14 +1815,14 @@
       <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E33" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>6.20089634E8</v>
+      <c r="D33" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>620089634</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>11</v>
@@ -1957,7 +1831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>84</v>
       </c>
@@ -1967,11 +1841,11 @@
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="2">
-        <v>40422.0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>7.1712128E8</v>
+      <c r="D34" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>717121280</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>11</v>
@@ -1980,7 +1854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>86</v>
       </c>
@@ -1990,14 +1864,14 @@
       <c r="C35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>6.00039589E8</v>
+      <c r="D35" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>600039589</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>11</v>
@@ -2006,7 +1880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
@@ -2016,14 +1890,14 @@
       <c r="C36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="2">
-        <v>44090.0</v>
-      </c>
-      <c r="E36" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>6.58402109E8</v>
+      <c r="D36" s="2" t="n">
+        <v>44090</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>658402109</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>11</v>
@@ -2032,7 +1906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
@@ -2042,11 +1916,11 @@
       <c r="C37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="2">
-        <v>40057.0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>6.56491528E8</v>
+      <c r="D37" s="2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>656491528</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>11</v>
@@ -2055,7 +1929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
@@ -2065,14 +1939,14 @@
       <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="2">
-        <v>44167.0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>44188.0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>6.66083282E8</v>
+      <c r="D38" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>44188</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>666083282</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>11</v>
@@ -2081,7 +1955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>94</v>
       </c>
@@ -2091,14 +1965,14 @@
       <c r="C39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E39" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>9.52795942E8</v>
+      <c r="D39" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>952795942</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>11</v>
@@ -2107,7 +1981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
@@ -2117,11 +1991,11 @@
       <c r="C40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="2">
-        <v>44090.0</v>
-      </c>
-      <c r="E40" s="2">
-        <v>44106.0</v>
+      <c r="D40" s="2" t="n">
+        <v>44090</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>44106</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>11</v>
@@ -2130,7 +2004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>97</v>
       </c>
@@ -2140,11 +2014,11 @@
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="2">
-        <v>37865.0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>6.70031576E8</v>
+      <c r="D41" s="2" t="n">
+        <v>37865</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>670031576</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>11</v>
@@ -2153,7 +2027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>99</v>
       </c>
@@ -2163,14 +2037,14 @@
       <c r="C42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E42" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>6.55198361E8</v>
+      <c r="D42" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>655198361</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>11</v>
@@ -2179,7 +2053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>101</v>
       </c>
@@ -2189,8 +2063,8 @@
       <c r="C43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="2">
-        <v>40787.0</v>
+      <c r="D43" s="2" t="n">
+        <v>40787</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>11</v>
@@ -2199,7 +2073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>103</v>
       </c>
@@ -2209,14 +2083,14 @@
       <c r="C44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="2">
-        <v>43924.0</v>
-      </c>
-      <c r="E44" s="2">
-        <v>45749.0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>9.52782069E8</v>
+      <c r="D44" s="2" t="n">
+        <v>43924</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>952782069</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>11</v>
@@ -2225,7 +2099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>105</v>
       </c>
@@ -2235,11 +2109,11 @@
       <c r="C45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="2">
-        <v>41153.0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>6.36443041E8</v>
+      <c r="D45" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>636443041</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>11</v>
@@ -2248,7 +2122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>105</v>
       </c>
@@ -2258,14 +2132,14 @@
       <c r="C46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E46" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>6.61954911E8</v>
+      <c r="D46" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>661954911</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>11</v>
@@ -2274,7 +2148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>108</v>
       </c>
@@ -2284,11 +2158,11 @@
       <c r="C47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="2">
-        <v>33878.0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>9.5279447E8</v>
+      <c r="D47" s="2" t="n">
+        <v>33878</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>952794470</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>11</v>
@@ -2297,7 +2171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>110</v>
       </c>
@@ -2307,14 +2181,14 @@
       <c r="C48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="2">
-        <v>39986.0</v>
-      </c>
-      <c r="E48" s="2">
-        <v>44220.0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>9.52795965E8</v>
+      <c r="D48" s="2" t="n">
+        <v>39986</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>44220</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>952795965</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>11</v>
@@ -2323,7 +2197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>112</v>
       </c>
@@ -2333,14 +2207,14 @@
       <c r="C49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E49" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F49" s="1">
-        <v>9.53718296E8</v>
+      <c r="D49" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>953718296</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>11</v>
@@ -2349,7 +2223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>114</v>
       </c>
@@ -2359,14 +2233,14 @@
       <c r="C50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E50" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F50" s="1">
-        <v>6.87654302E8</v>
+      <c r="D50" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>687654302</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>11</v>
@@ -2375,7 +2249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>116</v>
       </c>
@@ -2385,14 +2259,14 @@
       <c r="C51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="2">
-        <v>44090.0</v>
-      </c>
-      <c r="E51" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>6.85031987E8</v>
+      <c r="D51" s="2" t="n">
+        <v>44090</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>685031987</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>11</v>
@@ -2401,7 +2275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>119</v>
       </c>
@@ -2411,14 +2285,14 @@
       <c r="C52" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D52" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E52" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>6.40656461E8</v>
+      <c r="D52" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>640656461</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>11</v>
@@ -2427,7 +2301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>122</v>
       </c>
@@ -2437,11 +2311,11 @@
       <c r="C53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="2">
-        <v>39692.0</v>
-      </c>
-      <c r="F53" s="1">
-        <v>9.52807303E8</v>
+      <c r="D53" s="2" t="n">
+        <v>39692</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>952807303</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>11</v>
@@ -2450,7 +2324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>124</v>
       </c>
@@ -2460,14 +2334,14 @@
       <c r="C54" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E54" s="2">
-        <v>44439.0</v>
-      </c>
-      <c r="F54" s="1">
-        <v>6.06748632E8</v>
+      <c r="D54" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>606748632</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>11</v>
@@ -2476,7 +2350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>127</v>
       </c>
@@ -2486,11 +2360,11 @@
       <c r="C55" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E55" s="2">
-        <v>44377.0</v>
+      <c r="D55" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>44377</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>11</v>
@@ -2499,7 +2373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>130</v>
       </c>
@@ -2509,11 +2383,11 @@
       <c r="C56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="2">
-        <v>43709.0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>6.49446973E8</v>
+      <c r="D56" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>649446973</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>11</v>
@@ -2522,7 +2396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>132</v>
       </c>
@@ -2532,11 +2406,11 @@
       <c r="C57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="2">
-        <v>38231.0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>9.52800329E8</v>
+      <c r="D57" s="2" t="n">
+        <v>38231</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>952800329</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>11</v>
@@ -2545,7 +2419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>134</v>
       </c>
@@ -2555,14 +2429,14 @@
       <c r="C58" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E58" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F58" s="1">
-        <v>6.70557617E8</v>
+      <c r="D58" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>670557617</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>11</v>
@@ -2571,7 +2445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>136</v>
       </c>
@@ -2581,11 +2455,11 @@
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="2">
-        <v>44228.0</v>
-      </c>
-      <c r="E59" s="2">
-        <v>44286.0</v>
+      <c r="D59" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>44286</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>11</v>
@@ -2594,7 +2468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>138</v>
       </c>
@@ -2604,11 +2478,11 @@
       <c r="C60" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="2">
-        <v>39692.0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>6.65475984E8</v>
+      <c r="D60" s="2" t="n">
+        <v>39692</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>665475984</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>11</v>
@@ -2617,7 +2491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>140</v>
       </c>
@@ -2627,11 +2501,11 @@
       <c r="C61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="F61" s="1">
-        <v>6.15348684E8</v>
+      <c r="D61" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>615348684</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>11</v>
@@ -2640,7 +2514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>142</v>
       </c>
@@ -2650,11 +2524,11 @@
       <c r="C62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="2">
-        <v>40422.0</v>
-      </c>
-      <c r="F62" s="1">
-        <v>9.51965362E8</v>
+      <c r="D62" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>951965362</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>11</v>
@@ -2663,7 +2537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>144</v>
       </c>
@@ -2673,14 +2547,14 @@
       <c r="C63" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E63" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F63" s="1">
-        <v>6.19160218E8</v>
+      <c r="D63" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>619160218</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>11</v>
@@ -2689,7 +2563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>146</v>
       </c>
@@ -2699,11 +2573,11 @@
       <c r="C64" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="2">
-        <v>38231.0</v>
-      </c>
-      <c r="F64" s="1">
-        <v>9.5280543E8</v>
+      <c r="D64" s="2" t="n">
+        <v>38231</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>952805430</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>11</v>
@@ -2712,7 +2586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>148</v>
       </c>
@@ -2722,11 +2596,11 @@
       <c r="C65" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D65" s="2">
-        <v>39692.0</v>
-      </c>
-      <c r="F65" s="1">
-        <v>9.52340738E8</v>
+      <c r="D65" s="2" t="n">
+        <v>39692</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>952340738</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>11</v>
@@ -2735,7 +2609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>150</v>
       </c>
@@ -2745,14 +2619,14 @@
       <c r="C66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E66" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F66" s="1">
-        <v>6.58036793E8</v>
+      <c r="D66" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>658036793</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>11</v>
@@ -2761,7 +2635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>152</v>
       </c>
@@ -2771,14 +2645,14 @@
       <c r="C67" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D67" s="2">
-        <v>32051.0</v>
-      </c>
-      <c r="E67" s="2">
-        <v>44291.0</v>
-      </c>
-      <c r="F67" s="1">
-        <v>9.5280045E8</v>
+      <c r="D67" s="2" t="n">
+        <v>32051</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>952800450</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>11</v>
@@ -2787,7 +2661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>154</v>
       </c>
@@ -2797,14 +2671,14 @@
       <c r="C68" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E68" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F68" s="1">
-        <v>6.6706998E8</v>
+      <c r="D68" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>667069980</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>11</v>
@@ -2813,7 +2687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>154</v>
       </c>
@@ -2823,11 +2697,11 @@
       <c r="C69" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="2">
-        <v>40057.0</v>
-      </c>
-      <c r="F69" s="1">
-        <v>9.52805153E8</v>
+      <c r="D69" s="2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>952805153</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>11</v>
@@ -2836,7 +2710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>157</v>
       </c>
@@ -2846,14 +2720,14 @@
       <c r="C70" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D70" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E70" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F70" s="1">
-        <v>6.39839086E8</v>
+      <c r="D70" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>639839086</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>11</v>
@@ -2862,7 +2736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>160</v>
       </c>
@@ -2872,14 +2746,14 @@
       <c r="C71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E71" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F71" s="1">
-        <v>6.60843827E8</v>
+      <c r="D71" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>660843827</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>11</v>
@@ -2888,7 +2762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>160</v>
       </c>
@@ -2898,14 +2772,14 @@
       <c r="C72" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E72" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F72" s="1">
-        <v>6.62102628E8</v>
+      <c r="D72" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>662102628</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>11</v>
@@ -2914,7 +2788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>160</v>
       </c>
@@ -2924,14 +2798,14 @@
       <c r="C73" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D73" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E73" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F73" s="1">
-        <v>9.52923096E8</v>
+      <c r="D73" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>952923096</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>11</v>
@@ -2940,7 +2814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>160</v>
       </c>
@@ -2950,11 +2824,11 @@
       <c r="C74" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="2">
-        <v>36053.0</v>
-      </c>
-      <c r="F74" s="1">
-        <v>9.5280543E8</v>
+      <c r="D74" s="2" t="n">
+        <v>36053</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>952805430</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>11</v>
@@ -2963,7 +2837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>166</v>
       </c>
@@ -2973,14 +2847,14 @@
       <c r="C75" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E75" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F75" s="1">
-        <v>6.96203922E8</v>
+      <c r="D75" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>696203922</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>11</v>
@@ -2989,7 +2863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>168</v>
       </c>
@@ -2999,14 +2873,14 @@
       <c r="C76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D76" s="2">
-        <v>44221.0</v>
-      </c>
-      <c r="E76" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F76" s="1">
-        <v>6.2785697E8</v>
+      <c r="D76" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>627856970</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>11</v>
@@ -3015,7 +2889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>170</v>
       </c>
@@ -3025,14 +2899,14 @@
       <c r="C77" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E77" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F77" s="1">
-        <v>6.87187374E8</v>
+      <c r="D77" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>687187374</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>11</v>
@@ -3041,7 +2915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>172</v>
       </c>
@@ -3051,11 +2925,11 @@
       <c r="C78" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="2">
-        <v>42979.0</v>
-      </c>
-      <c r="F78" s="1">
-        <v>6.75348998E8</v>
+      <c r="D78" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>675348998</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>11</v>
@@ -3064,7 +2938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>172</v>
       </c>
@@ -3074,14 +2948,14 @@
       <c r="C79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="2">
-        <v>44138.0</v>
-      </c>
-      <c r="E79" s="2">
-        <v>44138.0</v>
-      </c>
-      <c r="F79" s="1">
-        <v>6.69029507E8</v>
+      <c r="D79" s="2" t="n">
+        <v>44138</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>44138</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>669029507</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>11</v>
@@ -3090,7 +2964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>175</v>
       </c>
@@ -3100,11 +2974,11 @@
       <c r="C80" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D80" s="2">
-        <v>43709.0</v>
-      </c>
-      <c r="F80" s="1">
-        <v>6.65883259E8</v>
+      <c r="D80" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>665883259</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>11</v>
@@ -3113,7 +2987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>177</v>
       </c>
@@ -3123,11 +2997,11 @@
       <c r="C81" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D81" s="2">
-        <v>38596.0</v>
-      </c>
-      <c r="F81" s="1">
-        <v>9.52802285E8</v>
+      <c r="D81" s="2" t="n">
+        <v>38596</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>952802285</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>11</v>
@@ -3136,7 +3010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>180</v>
       </c>
@@ -3146,11 +3020,11 @@
       <c r="C82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="2">
-        <v>38961.0</v>
-      </c>
-      <c r="F82" s="1">
-        <v>9.55830943E8</v>
+      <c r="D82" s="2" t="n">
+        <v>38961</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>955830943</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>11</v>
@@ -3159,7 +3033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>180</v>
       </c>
@@ -3169,14 +3043,14 @@
       <c r="C83" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="2">
-        <v>44102.0</v>
-      </c>
-      <c r="E83" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F83" s="1">
-        <v>6.71262118E8</v>
+      <c r="D83" s="2" t="n">
+        <v>44102</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>671262118</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>11</v>
@@ -3185,7 +3059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>183</v>
       </c>
@@ -3195,14 +3069,14 @@
       <c r="C84" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="2">
-        <v>44242.0</v>
-      </c>
-      <c r="E84" s="2">
-        <v>44286.0</v>
-      </c>
-      <c r="F84" s="1">
-        <v>6.7068369E8</v>
+      <c r="D84" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>670683690</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>12</v>
@@ -3211,7 +3085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>183</v>
       </c>
@@ -3221,14 +3095,14 @@
       <c r="C85" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D85" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E85" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F85" s="1">
-        <v>6.85522638E8</v>
+      <c r="D85" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>685522638</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>11</v>
@@ -3237,7 +3111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>186</v>
       </c>
@@ -3247,11 +3121,11 @@
       <c r="C86" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D86" s="2">
-        <v>41153.0</v>
-      </c>
-      <c r="F86" s="1">
-        <v>6.99987772E8</v>
+      <c r="D86" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>699987772</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>11</v>
@@ -3260,7 +3134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>189</v>
       </c>
@@ -3270,11 +3144,11 @@
       <c r="C87" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D87" s="2">
-        <v>41518.0</v>
-      </c>
-      <c r="F87" s="1">
-        <v>9.51892984E8</v>
+      <c r="D87" s="2" t="n">
+        <v>41518</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>951892984</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>11</v>
@@ -3283,7 +3157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>191</v>
       </c>
@@ -3293,14 +3167,14 @@
       <c r="C88" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D88" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E88" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F88" s="1">
-        <v>6.26895904E8</v>
+      <c r="D88" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>626895904</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>11</v>
@@ -3309,7 +3183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>193</v>
       </c>
@@ -3319,14 +3193,14 @@
       <c r="C89" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="2">
-        <v>41153.0</v>
-      </c>
-      <c r="E89" s="2">
-        <v>44078.0</v>
-      </c>
-      <c r="F89" s="1">
-        <v>9.52796064E8</v>
+      <c r="D89" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>44078</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>952796064</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>11</v>
@@ -3335,7 +3209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>195</v>
       </c>
@@ -3345,14 +3219,14 @@
       <c r="C90" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D90" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E90" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F90" s="1">
-        <v>6.46011409E8</v>
+      <c r="D90" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>646011409</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>11</v>
@@ -3361,7 +3235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>197</v>
       </c>
@@ -3371,14 +3245,14 @@
       <c r="C91" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D91" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E91" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F91" s="1">
-        <v>6.10917127E8</v>
+      <c r="D91" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>610917127</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>11</v>
@@ -3387,7 +3261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>199</v>
       </c>
@@ -3397,14 +3271,14 @@
       <c r="C92" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="2">
-        <v>44095.0</v>
-      </c>
-      <c r="E92" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F92" s="1">
-        <v>6.25850519E8</v>
+      <c r="D92" s="2" t="n">
+        <v>44095</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>625850519</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>11</v>
@@ -3413,7 +3287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>201</v>
       </c>
@@ -3423,14 +3297,14 @@
       <c r="C93" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D93" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E93" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F93" s="1">
-        <v>6.92231083E8</v>
+      <c r="D93" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>692231083</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>11</v>
@@ -3439,7 +3313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>203</v>
       </c>
@@ -3449,14 +3323,14 @@
       <c r="C94" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D94" s="2">
-        <v>44090.0</v>
-      </c>
-      <c r="E94" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F94" s="1">
-        <v>6.87759273E8</v>
+      <c r="D94" s="2" t="n">
+        <v>44090</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>687759273</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>11</v>
@@ -3465,7 +3339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>203</v>
       </c>
@@ -3475,14 +3349,14 @@
       <c r="C95" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="2">
-        <v>44138.0</v>
-      </c>
-      <c r="E95" s="3">
-        <v>44187.0</v>
-      </c>
-      <c r="F95" s="1">
-        <v>6.0001586E8</v>
+      <c r="D95" s="2" t="n">
+        <v>44138</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>44187</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>600015860</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>11</v>
@@ -3491,7 +3365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>206</v>
       </c>
@@ -3501,14 +3375,14 @@
       <c r="C96" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D96" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E96" s="2">
-        <v>44439.0</v>
-      </c>
-      <c r="F96" s="1">
-        <v>9.52791844E8</v>
+      <c r="D96" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>952791844</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>11</v>
@@ -3517,7 +3391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>209</v>
       </c>
@@ -3527,14 +3401,14 @@
       <c r="C97" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="2">
-        <v>44144.0</v>
-      </c>
-      <c r="E97" s="2">
-        <v>44286.0</v>
-      </c>
-      <c r="F97" s="1">
-        <v>6.90939446E8</v>
+      <c r="D97" s="2" t="n">
+        <v>44144</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <v>690939446</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>11</v>
@@ -3543,7 +3417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>211</v>
       </c>
@@ -3553,14 +3427,14 @@
       <c r="C98" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E98" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F98" s="1">
-        <v>6.63697861E8</v>
+      <c r="D98" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <v>663697861</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>11</v>
@@ -3569,7 +3443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>213</v>
       </c>
@@ -3579,14 +3453,14 @@
       <c r="C99" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D99" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E99" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F99" s="1">
-        <v>6.22191146E8</v>
+      <c r="D99" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <v>622191146</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>11</v>
@@ -3595,7 +3469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>215</v>
       </c>
@@ -3605,14 +3479,14 @@
       <c r="C100" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D100" s="3">
-        <v>44124.0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>44183.0</v>
-      </c>
-      <c r="F100" s="1">
-        <v>6.787766E8</v>
+      <c r="D100" s="3" t="n">
+        <v>44124</v>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>44183</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <v>678776600</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>11</v>
@@ -3621,7 +3495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>215</v>
       </c>
@@ -3631,14 +3505,14 @@
       <c r="C101" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D101" s="2">
-        <v>44167.0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>44183.0</v>
-      </c>
-      <c r="F101" s="1">
-        <v>6.71558131E8</v>
+      <c r="D101" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>44183</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <v>671558131</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>11</v>
@@ -3647,7 +3521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>218</v>
       </c>
@@ -3657,11 +3531,11 @@
       <c r="C102" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D102" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="F102" s="1">
-        <v>6.9971728E8</v>
+      <c r="D102" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <v>699717280</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>11</v>
@@ -3670,7 +3544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>220</v>
       </c>
@@ -3680,11 +3554,11 @@
       <c r="C103" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D103" s="2">
-        <v>33512.0</v>
-      </c>
-      <c r="F103" s="1">
-        <v>6.96418007E8</v>
+      <c r="D103" s="2" t="n">
+        <v>33512</v>
+      </c>
+      <c r="F103" s="1" t="n">
+        <v>696418007</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>11</v>
@@ -3693,7 +3567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>220</v>
       </c>
@@ -3703,11 +3577,11 @@
       <c r="C104" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="2">
-        <v>44090.0</v>
-      </c>
-      <c r="E104" s="2">
-        <v>44377.0</v>
+      <c r="D104" s="2" t="n">
+        <v>44090</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>44377</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>11</v>
@@ -3716,7 +3590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>220</v>
       </c>
@@ -3726,11 +3600,11 @@
       <c r="C105" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D105" s="2">
-        <v>37865.0</v>
-      </c>
-      <c r="F105" s="1">
-        <v>9.52800387E8</v>
+      <c r="D105" s="2" t="n">
+        <v>37865</v>
+      </c>
+      <c r="F105" s="1" t="n">
+        <v>952800387</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>11</v>
@@ -3739,7 +3613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>220</v>
       </c>
@@ -3749,11 +3623,11 @@
       <c r="C106" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D106" s="2">
-        <v>38231.0</v>
-      </c>
-      <c r="F106" s="1">
-        <v>9.5279139E8</v>
+      <c r="D106" s="2" t="n">
+        <v>38231</v>
+      </c>
+      <c r="F106" s="1" t="n">
+        <v>952791390</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>11</v>
@@ -3762,7 +3636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>226</v>
       </c>
@@ -3772,11 +3646,11 @@
       <c r="C107" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D107" s="2">
-        <v>43709.0</v>
-      </c>
-      <c r="F107" s="1">
-        <v>6.06111414E8</v>
+      <c r="D107" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="F107" s="1" t="n">
+        <v>606111414</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>11</v>
@@ -3785,7 +3659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>228</v>
       </c>
@@ -3795,11 +3669,11 @@
       <c r="C108" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D108" s="2">
-        <v>33147.0</v>
-      </c>
-      <c r="F108" s="1">
-        <v>6.90006715E8</v>
+      <c r="D108" s="2" t="n">
+        <v>33147</v>
+      </c>
+      <c r="F108" s="1" t="n">
+        <v>690006715</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>11</v>
@@ -3808,7 +3682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>230</v>
       </c>
@@ -3818,14 +3692,14 @@
       <c r="C109" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D109" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E109" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F109" s="1">
-        <v>6.56905836E8</v>
+      <c r="D109" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F109" s="1" t="n">
+        <v>656905836</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>11</v>
@@ -3834,7 +3708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>232</v>
       </c>
@@ -3844,11 +3718,11 @@
       <c r="C110" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D110" s="2">
-        <v>40422.0</v>
-      </c>
-      <c r="F110" s="1">
-        <v>9.52890188E8</v>
+      <c r="D110" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="F110" s="1" t="n">
+        <v>952890188</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>11</v>
@@ -3857,7 +3731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>234</v>
       </c>
@@ -3867,14 +3741,14 @@
       <c r="C111" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D111" s="2">
-        <v>44242.0</v>
-      </c>
-      <c r="E111" s="2">
-        <v>44286.0</v>
-      </c>
-      <c r="F111" s="1">
-        <v>6.47293458E8</v>
+      <c r="D111" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F111" s="1" t="n">
+        <v>647293458</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>11</v>
@@ -3883,7 +3757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>236</v>
       </c>
@@ -3893,14 +3767,14 @@
       <c r="C112" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E112" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F112" s="1">
-        <v>9.50254657E8</v>
+      <c r="D112" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F112" s="1" t="n">
+        <v>950254657</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>11</v>
@@ -3909,7 +3783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>238</v>
       </c>
@@ -3919,14 +3793,14 @@
       <c r="C113" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D113" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E113" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F113" s="1">
-        <v>6.60326238E8</v>
+      <c r="D113" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F113" s="1" t="n">
+        <v>660326238</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>11</v>
@@ -3935,7 +3809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>240</v>
       </c>
@@ -3945,11 +3819,11 @@
       <c r="C114" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="2">
-        <v>33878.0</v>
-      </c>
-      <c r="F114" s="1">
-        <v>9.52796088E8</v>
+      <c r="D114" s="2" t="n">
+        <v>33878</v>
+      </c>
+      <c r="F114" s="1" t="n">
+        <v>952796088</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>11</v>
@@ -3958,7 +3832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>242</v>
       </c>
@@ -3968,14 +3842,14 @@
       <c r="C115" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D115" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E115" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F115" s="1">
-        <v>6.63208603E8</v>
+      <c r="D115" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F115" s="1" t="n">
+        <v>663208603</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>11</v>
@@ -3984,7 +3858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>244</v>
       </c>
@@ -3994,14 +3868,14 @@
       <c r="C116" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D116" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E116" s="2">
-        <v>44439.0</v>
-      </c>
-      <c r="F116" s="1">
-        <v>6.87257704E8</v>
+      <c r="D116" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="F116" s="1" t="n">
+        <v>687257704</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>11</v>
@@ -4010,7 +3884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>246</v>
       </c>
@@ -4020,14 +3894,14 @@
       <c r="C117" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D117" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E117" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F117" s="1">
-        <v>6.6259853E8</v>
+      <c r="D117" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F117" s="1" t="n">
+        <v>662598530</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>11</v>
@@ -4036,7 +3910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>248</v>
       </c>
@@ -4046,14 +3920,14 @@
       <c r="C118" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D118" s="2">
-        <v>44090.0</v>
-      </c>
-      <c r="E118" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F118" s="1">
-        <v>6.56311792E8</v>
+      <c r="D118" s="2" t="n">
+        <v>44090</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F118" s="1" t="n">
+        <v>656311792</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>11</v>
@@ -4062,7 +3936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>250</v>
       </c>
@@ -4072,11 +3946,11 @@
       <c r="C119" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D119" s="2">
-        <v>37135.0</v>
-      </c>
-      <c r="F119" s="1">
-        <v>9.52796927E8</v>
+      <c r="D119" s="2" t="n">
+        <v>37135</v>
+      </c>
+      <c r="F119" s="1" t="n">
+        <v>952796927</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>11</v>
@@ -4085,7 +3959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>250</v>
       </c>
@@ -4095,11 +3969,11 @@
       <c r="C120" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D120" s="2">
-        <v>43709.0</v>
-      </c>
-      <c r="F120" s="1">
-        <v>9.51715669E8</v>
+      <c r="D120" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="F120" s="1" t="n">
+        <v>951715669</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>11</v>
@@ -4108,7 +3982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>253</v>
       </c>
@@ -4118,11 +3992,11 @@
       <c r="C121" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D121" s="2">
-        <v>43344.0</v>
-      </c>
-      <c r="F121" s="1">
-        <v>9.52796197E8</v>
+      <c r="D121" s="2" t="n">
+        <v>43344</v>
+      </c>
+      <c r="F121" s="1" t="n">
+        <v>952796197</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>11</v>
@@ -4131,7 +4005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>255</v>
       </c>
@@ -4141,11 +4015,11 @@
       <c r="C122" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D122" s="2">
-        <v>35688.0</v>
-      </c>
-      <c r="F122" s="1">
-        <v>9.52791737E8</v>
+      <c r="D122" s="2" t="n">
+        <v>35688</v>
+      </c>
+      <c r="F122" s="1" t="n">
+        <v>952791737</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>11</v>
@@ -4154,7 +4028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>257</v>
       </c>
@@ -4164,11 +4038,11 @@
       <c r="C123" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D123" s="2">
-        <v>43709.0</v>
-      </c>
-      <c r="F123" s="1">
-        <v>6.80671354E8</v>
+      <c r="D123" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="F123" s="1" t="n">
+        <v>680671354</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>11</v>
@@ -4177,7 +4051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>257</v>
       </c>
@@ -4187,14 +4061,14 @@
       <c r="C124" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D124" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E124" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F124" s="1">
-        <v>6.49681212E8</v>
+      <c r="D124" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F124" s="1" t="n">
+        <v>649681212</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>11</v>
@@ -4203,7 +4077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>260</v>
       </c>
@@ -4213,11 +4087,11 @@
       <c r="C125" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D125" s="2">
-        <v>40422.0</v>
-      </c>
-      <c r="F125" s="1">
-        <v>6.39675154E8</v>
+      <c r="D125" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="F125" s="1" t="n">
+        <v>639675154</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>11</v>
@@ -4226,7 +4100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>262</v>
       </c>
@@ -4236,8 +4110,8 @@
       <c r="C126" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D126" s="2">
-        <v>37135.0</v>
+      <c r="D126" s="2" t="n">
+        <v>37135</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>11</v>
@@ -4246,7 +4120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>264</v>
       </c>
@@ -4256,14 +4130,14 @@
       <c r="C127" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D127" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E127" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F127" s="1">
-        <v>9.52438739E8</v>
+      <c r="D127" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F127" s="1" t="n">
+        <v>952438739</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>11</v>
@@ -4272,7 +4146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>267</v>
       </c>
@@ -4282,11 +4156,11 @@
       <c r="C128" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D128" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="F128" s="1">
-        <v>6.66533066E8</v>
+      <c r="D128" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="F128" s="1" t="n">
+        <v>666533066</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>11</v>
@@ -4295,7 +4169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>269</v>
       </c>
@@ -4305,14 +4179,14 @@
       <c r="C129" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D129" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E129" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F129" s="1">
-        <v>6.55378521E8</v>
+      <c r="D129" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F129" s="1" t="n">
+        <v>655378521</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>11</v>
@@ -4321,7 +4195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>271</v>
       </c>
@@ -4331,11 +4205,11 @@
       <c r="C130" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D130" s="2">
-        <v>39692.0</v>
-      </c>
-      <c r="F130" s="1">
-        <v>6.54167765E8</v>
+      <c r="D130" s="2" t="n">
+        <v>39692</v>
+      </c>
+      <c r="F130" s="1" t="n">
+        <v>654167765</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>11</v>
@@ -4344,7 +4218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>273</v>
       </c>
@@ -4354,14 +4228,14 @@
       <c r="C131" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D131" s="2">
-        <v>44111.0</v>
-      </c>
-      <c r="E131" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F131" s="1">
-        <v>6.79155637E8</v>
+      <c r="D131" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F131" s="1" t="n">
+        <v>679155637</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>11</v>
@@ -4370,7 +4244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>275</v>
       </c>
@@ -4380,11 +4254,11 @@
       <c r="C132" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D132" s="2">
-        <v>42614.0</v>
-      </c>
-      <c r="F132" s="1">
-        <v>6.56953206E8</v>
+      <c r="D132" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="F132" s="1" t="n">
+        <v>656953206</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>11</v>
@@ -4393,7 +4267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>277</v>
       </c>
@@ -4403,14 +4277,14 @@
       <c r="C133" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D133" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E133" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F133" s="1">
-        <v>6.35257811E8</v>
+      <c r="D133" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F133" s="1" t="n">
+        <v>635257811</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>11</v>
@@ -4419,7 +4293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>277</v>
       </c>
@@ -4429,14 +4303,14 @@
       <c r="C134" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D134" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E134" s="2">
-        <v>44439.0</v>
-      </c>
-      <c r="F134" s="1">
-        <v>6.18072577E8</v>
+      <c r="D134" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="F134" s="1" t="n">
+        <v>618072577</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>11</v>
@@ -4445,7 +4319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>280</v>
       </c>
@@ -4455,11 +4329,11 @@
       <c r="C135" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D135" s="2">
-        <v>32782.0</v>
-      </c>
-      <c r="F135" s="1">
-        <v>9.52807681E8</v>
+      <c r="D135" s="2" t="n">
+        <v>32782</v>
+      </c>
+      <c r="F135" s="1" t="n">
+        <v>952807681</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>11</v>
@@ -4468,7 +4342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>282</v>
       </c>
@@ -4478,11 +4352,11 @@
       <c r="C136" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D136" s="2">
-        <v>41883.0</v>
-      </c>
-      <c r="F136" s="1">
-        <v>9.81231728E8</v>
+      <c r="D136" s="2" t="n">
+        <v>41883</v>
+      </c>
+      <c r="F136" s="1" t="n">
+        <v>981231728</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>11</v>
@@ -4491,7 +4365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>284</v>
       </c>
@@ -4501,8 +4375,8 @@
       <c r="C137" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D137" s="2">
-        <v>33878.0</v>
+      <c r="D137" s="2" t="n">
+        <v>33878</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>11</v>
@@ -4511,7 +4385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>284</v>
       </c>
@@ -4521,11 +4395,11 @@
       <c r="C138" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D138" s="2">
-        <v>41153.0</v>
-      </c>
-      <c r="F138" s="1">
-        <v>6.05837861E8</v>
+      <c r="D138" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="F138" s="1" t="n">
+        <v>605837861</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>11</v>
@@ -4534,7 +4408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>287</v>
       </c>
@@ -4544,11 +4418,11 @@
       <c r="C139" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D139" s="2">
-        <v>32782.0</v>
-      </c>
-      <c r="E139" s="2">
-        <v>44109.0</v>
+      <c r="D139" s="2" t="n">
+        <v>32782</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>44109</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>11</v>
@@ -4557,7 +4431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>289</v>
       </c>
@@ -4567,14 +4441,14 @@
       <c r="C140" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D140" s="2">
-        <v>44075.0</v>
-      </c>
-      <c r="E140" s="2">
-        <v>44377.0</v>
-      </c>
-      <c r="F140" s="1">
-        <v>6.67912025E8</v>
+      <c r="D140" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F140" s="1" t="n">
+        <v>667912025</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>11</v>
@@ -4583,7 +4457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>291</v>
       </c>
@@ -4593,14 +4467,14 @@
       <c r="C141" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D141" s="2">
-        <v>43709.0</v>
-      </c>
-      <c r="E141" s="2">
-        <v>44438.0</v>
-      </c>
-      <c r="F141" s="1">
-        <v>6.75171749E8</v>
+      <c r="D141" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>44438</v>
+      </c>
+      <c r="F141" s="1" t="n">
+        <v>675171749</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>11</v>
@@ -4610,6 +4484,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>